--- a/doc/excel/培训/[sample_cetUpperTrain]参训人员录入样表.xlsx
+++ b/doc/excel/培训/[sample_cetUpperTrain]参训人员录入样表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdeaProjects\owip\doc\excel\培训\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\项目相关\功能\1、零碎需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3859343B-695D-4EB9-998C-75D875E0D062}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221C9FBA-BEA5-43E8-A354-19775AC47A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="2880" windowWidth="24015" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <author>min liaom</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{60F15096-AE3D-432C-922A-944FE73DD18A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{60F15096-AE3D-432C-922A-944FE73DD18A}">
       <text>
         <r>
           <rPr>
@@ -40,7 +40,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{481386CD-CDF8-4BD5-8DEF-A4FF27493650}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{481386CD-CDF8-4BD5-8DEF-A4FF27493650}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{29BA578F-54A3-4298-976D-D6984F741A3D}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{29BA578F-54A3-4298-976D-D6984F741A3D}">
       <text>
         <r>
           <rPr>
@@ -122,10 +122,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>05139</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>张三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,14 +184,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>否</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>培训形式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,28 +191,37 @@
     <t>线下培训</t>
   </si>
   <si>
-    <t>是否
-支部书记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否
-双肩挑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>参训人员类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>处级干部</t>
+  </si>
+  <si>
+    <t>参训人员身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双肩挑，支部书记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、参训人员身份请按照系统已有的参训人员身份进行填写，当有多个身份时，用逗号隔开。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训成绩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>95102</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -300,6 +297,14 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -324,7 +329,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -390,6 +395,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -705,34 +716,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.875" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.875" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
-    <col min="5" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="8.75" customWidth="1"/>
-    <col min="8" max="8" width="22.625" customWidth="1"/>
-    <col min="9" max="9" width="18.75" customWidth="1"/>
-    <col min="10" max="10" width="28.375" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="13" width="9.75" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="16" customWidth="1"/>
-    <col min="15" max="15" width="22.75" style="16" customWidth="1"/>
+    <col min="4" max="4" width="19.5" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="8.75" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="18.75" customWidth="1"/>
+    <col min="9" max="9" width="28.375" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="12" width="9.75" customWidth="1"/>
+    <col min="13" max="13" width="9.75" style="16" customWidth="1"/>
+    <col min="14" max="15" width="22.75" style="16" customWidth="1"/>
     <col min="16" max="16" width="14.25" style="16" customWidth="1"/>
     <col min="17" max="17" width="15.125" style="16" customWidth="1"/>
     <col min="18" max="18" width="13.25" style="16" customWidth="1"/>
     <col min="19" max="19" width="21.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="3" customFormat="1" ht="30.75" customHeight="1">
+    <row r="1" spans="1:19" s="3" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
         <v>6</v>
       </c>
@@ -740,128 +751,170 @@
         <v>7</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="H1" s="9" t="s">
+        <v>4</v>
+      </c>
       <c r="I1" s="9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>15</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="P1" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="21" t="s">
-        <v>22</v>
-      </c>
       <c r="R1" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="33.75" customHeight="1">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="15">
+        <v>2019</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="H2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="15">
-        <v>2019</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>28</v>
+      <c r="K2" s="7">
+        <v>43216</v>
       </c>
       <c r="L2" s="7">
-        <v>43216</v>
-      </c>
-      <c r="M2" s="7">
         <v>43217</v>
       </c>
-      <c r="N2" s="15">
+      <c r="M2" s="15">
         <v>12</v>
       </c>
-      <c r="O2" s="19" t="s">
+      <c r="N2" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="19"/>
+      <c r="P2" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>18</v>
       </c>
       <c r="Q2" s="15"/>
       <c r="R2" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B4" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
+  <mergeCells count="1">
+    <mergeCell ref="B4:F9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576" xr:uid="{EB15CF69-4B81-4DB2-ADC7-BF5E0CC35A03}">
       <formula1>"党委组织部,其他部门派出"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2" xr:uid="{17EAB4DD-8149-4461-A64C-AF4B0889A175}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2" xr:uid="{17EAB4DD-8149-4461-A64C-AF4B0889A175}">
       <formula1>"线下培训,线上培训"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 E2" xr:uid="{B2CBB9A7-6053-45E7-963B-200CFBB2DB75}">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2" xr:uid="{637FC34C-D3C3-43A5-9C4B-BD68D1252C3A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{637FC34C-D3C3-43A5-9C4B-BD68D1252C3A}">
       <formula1>"处级干部,优秀年轻干部"</formula1>
     </dataValidation>
   </dataValidations>
